--- a/Tugas2/Metnum_Irgiyansyah_T2-1.xlsx
+++ b/Tugas2/Metnum_Irgiyansyah_T2-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7450" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7450" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="Zoom 4" sheetId="5" r:id="rId5"/>
     <sheet name="Biseksi" sheetId="7" r:id="rId6"/>
     <sheet name="Regula Falsi" sheetId="9" r:id="rId7"/>
+    <sheet name="Error" sheetId="10" r:id="rId8"/>
+    <sheet name="Error (2)" sheetId="11" r:id="rId9"/>
+    <sheet name="Newton" sheetId="13" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
   <si>
     <t>x</t>
   </si>
@@ -94,12 +98,111 @@
   <si>
     <t>REGULA FALSI</t>
   </si>
+  <si>
+    <t>Em</t>
+  </si>
+  <si>
+    <t>En</t>
+  </si>
+  <si>
+    <t>Em = error mutlak</t>
+  </si>
+  <si>
+    <t>En = error relative</t>
+  </si>
+  <si>
+    <t>Persamaan = 4,15*x^5-5,09*x^7-2,12</t>
+  </si>
+  <si>
+    <t>Persamaan = 3,49*x^7-5,09*x^5-2,12</t>
+  </si>
+  <si>
+    <t>f`(x)</t>
+  </si>
+  <si>
+    <t>4,15x^5-2,23x^3-6,35</t>
+  </si>
+  <si>
+    <t>20,75x^4-6,69x^2</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e </t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <t>|xr+1-xr|</t>
+  </si>
+  <si>
+    <t>1,13x^3-1,23x^5-6,35</t>
+  </si>
+  <si>
+    <t>3,39x^2-6,15x^4</t>
+  </si>
+  <si>
+    <t>x2-2x-3</t>
+  </si>
+  <si>
+    <t>2x-2</t>
+  </si>
+  <si>
+    <t>persamaan</t>
+  </si>
+  <si>
+    <t>e = 0,0001</t>
+  </si>
+  <si>
+    <t>f`(x) = 6x2 - 6x + 1</t>
+  </si>
+  <si>
+    <t>f(x)  = 2x3 - 3x2 + 1x - 5 = 0</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+  </si>
+  <si>
+    <t>f(x)/f`(x)</t>
+  </si>
+  <si>
+    <t>x(k+1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +224,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +285,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -265,11 +409,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,9 +517,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,9 +525,86 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,11 +804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1335387424"/>
-        <c:axId val="1335387968"/>
+        <c:axId val="-27598688"/>
+        <c:axId val="-27610656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1335387424"/>
+        <c:axId val="-27598688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,12 +865,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1335387968"/>
+        <c:crossAx val="-27610656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1335387968"/>
+        <c:axId val="-27610656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1335387424"/>
+        <c:crossAx val="-27598688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -860,11 +1141,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1335388512"/>
-        <c:axId val="1335389056"/>
+        <c:axId val="-27609568"/>
+        <c:axId val="-27609024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1335388512"/>
+        <c:axId val="-27609568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,7 +1188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1335389056"/>
+        <c:crossAx val="-27609024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -915,7 +1196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1335389056"/>
+        <c:axId val="-27609024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +1247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1335388512"/>
+        <c:crossAx val="-27609568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1180,11 +1461,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1335386880"/>
-        <c:axId val="1335389600"/>
+        <c:axId val="-27608480"/>
+        <c:axId val="-27607392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1335386880"/>
+        <c:axId val="-27608480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,7 +1508,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1335389600"/>
+        <c:crossAx val="-27607392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1235,7 +1516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1335389600"/>
+        <c:axId val="-27607392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,7 +1567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1335386880"/>
+        <c:crossAx val="-27608480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1500,11 +1781,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1333394384"/>
-        <c:axId val="1333396560"/>
+        <c:axId val="-27606848"/>
+        <c:axId val="-27606304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1333394384"/>
+        <c:axId val="-27606848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1333396560"/>
+        <c:crossAx val="-27606304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1555,7 +1836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1333396560"/>
+        <c:axId val="-27606304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1606,7 +1887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1333394384"/>
+        <c:crossAx val="-27606848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1820,11 +2101,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1333392752"/>
-        <c:axId val="1333389488"/>
+        <c:axId val="-28210816"/>
+        <c:axId val="-28209184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1333392752"/>
+        <c:axId val="-28210816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,7 +2148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1333389488"/>
+        <c:crossAx val="-28209184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1875,7 +2156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1333389488"/>
+        <c:axId val="-28209184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,7 +2207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1333392752"/>
+        <c:crossAx val="-28210816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1990,7 +2271,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2152,11 +2432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1333396016"/>
-        <c:axId val="1333395472"/>
+        <c:axId val="-1936130240"/>
+        <c:axId val="-1936125344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1333396016"/>
+        <c:axId val="-1936130240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2199,12 +2479,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1333395472"/>
+        <c:crossAx val="-1936125344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1333395472"/>
+        <c:axId val="-1936125344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,7 +2535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1333396016"/>
+        <c:crossAx val="-1936130240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2269,7 +2549,2022 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$F$19:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$F$20:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$F$21:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$F$22:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$F$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$F$24:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$F$25:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$F$26:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1936126976"/>
+        <c:axId val="-1936121536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1936126976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1936121536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1936121536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1936126976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$F$6:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1953125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(a)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$I$6:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-4.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.04670196533203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.28449313163757139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.28449313163757139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.28449313163757139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2051106754515502E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$H$6:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.21875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.203125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.203125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(b)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$K$6:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>108.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.637812500000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9593261718750021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9593261718750021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9593261718750021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77198921948671462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22806667211465737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22806667211465737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$G$6:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.21875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.203125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1953125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.19921875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(c )</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$J$6:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.637812500000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9593261718750021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.04670196533203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.28449313163757139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77198921948671462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22806667211465737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.2051106754515502E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7038092205740334E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1936119360"/>
+        <c:axId val="-1936124800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1936119360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1936124800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1936124800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1936119360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$19:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$20:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$21:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$22:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.7199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.857734375000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>281.72000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.7199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0118304443359376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.857734375000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0%">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$24:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0118304443359376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2930311155319254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.857734375000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0%">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$25:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0118304443359376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4713737157359725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2930311155319254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0%">
+                  <c:v>-4.7619047619047616E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Error (2)'!$F$26:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.28125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0118304443359376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6983022640052532E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4713737157359725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0%">
+                  <c:v>-2.4390243902439025E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1936119904"/>
+        <c:axId val="-1936128064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1936119904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1936128064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1936128064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1936119904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2576,6 +4871,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5157,6 +7572,1528 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5838,21 +9775,123 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>31190</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128307</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>338978</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>436095</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185270</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6147,11 +10186,11 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -6161,11 +10200,11 @@
         <f>4.15*A2^5-2.23*A2^3-6.35</f>
         <v>-12696.350000000002</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -6264,6 +10303,1173 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="43"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1.196</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22">
+        <f>E6-(4.15*E6^5-2.23*E6^3-6.35)/20.75*E6^4-6.69*E6^2</f>
+        <v>-8.3725491225581301</v>
+      </c>
+      <c r="F7" s="22">
+        <f>ABS(E7-E6)</f>
+        <v>9.5685491225581298</v>
+      </c>
+      <c r="G7" s="22" t="b">
+        <f>ABS(F7)&lt;B9</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="43"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D8" s="22">
+        <v>2</v>
+      </c>
+      <c r="E8" s="22">
+        <f t="shared" ref="E8" si="0">E7-(4.15*E7^5-2.23*E7^3-6.35)/20.75*E7^4-6.69*E7^2</f>
+        <v>40125321.736645021</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" ref="F8:F16" si="1">ABS(E8-E7)</f>
+        <v>40125330.109194145</v>
+      </c>
+      <c r="G8" s="22" t="b">
+        <f>ABS(F8)&lt;B9</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="43"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="45">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="43"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="43"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="43"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="43"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="43"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D14" s="22">
+        <v>1</v>
+      </c>
+      <c r="E14" s="22">
+        <f>E13-(1.13*E13^3-1.23*E13^5-6.35)/3.39*E13^2-6.15*E13^4</f>
+        <v>-5.9927983327039902</v>
+      </c>
+      <c r="F14" s="22">
+        <f>ABS(E14-E13)</f>
+        <v>7.1127983327039903</v>
+      </c>
+      <c r="G14" s="22" t="b">
+        <f>ABS(F14)&lt;B9</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="43"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="22">
+        <v>2</v>
+      </c>
+      <c r="E15" s="22">
+        <f>E14-(1.13*E14^3-1.23*E14^5-6.35)/3.39*E14^2-6.15*E14^4</f>
+        <v>-106013.82413862349</v>
+      </c>
+      <c r="F15" s="22">
+        <f t="shared" si="1"/>
+        <v>106007.83134029078</v>
+      </c>
+      <c r="G15" s="22" t="b">
+        <f>ABS(F15)&lt;B9</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="43"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0</v>
+      </c>
+      <c r="E23" s="22">
+        <v>4</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D24" s="22">
+        <v>1</v>
+      </c>
+      <c r="E24" s="22">
+        <f>E23-(E23^2-2*E23-3)/(2*E23-2)</f>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="F24" s="22">
+        <f>ABS(E24-E23)</f>
+        <v>0.83333333333333348</v>
+      </c>
+      <c r="G24" s="22" t="b">
+        <f>ABS(F24)&lt;B9</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="D25" s="22">
+        <v>2</v>
+      </c>
+      <c r="E25" s="22">
+        <f t="shared" ref="E25:E27" si="2">E24-(E24^2-2*E24-3)/(2*E24-2)</f>
+        <v>3.0064102564102564</v>
+      </c>
+      <c r="F25" s="22">
+        <f t="shared" ref="F25:F27" si="3">ABS(E25-E24)</f>
+        <v>0.16025641025641013</v>
+      </c>
+      <c r="G25" s="22" t="b">
+        <f>ABS(F25)&lt;B10</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D26" s="22">
+        <v>3</v>
+      </c>
+      <c r="E26" s="22">
+        <f t="shared" si="2"/>
+        <v>3.0000102400262145</v>
+      </c>
+      <c r="F26" s="22">
+        <f t="shared" si="3"/>
+        <v>6.4000163840418622E-3</v>
+      </c>
+      <c r="G26" s="22" t="b">
+        <f>ABS(F26)&lt;B11</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D27" s="22">
+        <v>4</v>
+      </c>
+      <c r="E27" s="22">
+        <f t="shared" si="2"/>
+        <v>3.0000000000262141</v>
+      </c>
+      <c r="F27" s="22">
+        <f t="shared" si="3"/>
+        <v>1.0240000000383276E-5</v>
+      </c>
+      <c r="G27" s="22" t="b">
+        <f>ABS(F27)&lt;B12</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="43"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>2</v>
+      </c>
+      <c r="F3" s="22">
+        <f xml:space="preserve"> 2*E3^3 - 3*(E3^2) + 1 * E3 - 5</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="22">
+        <f>6*(E3^2)-6*E3+1</f>
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <f>F3/G3</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="I3">
+        <f>E4</f>
+        <v>1.9230769230769231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="40"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="54">
+        <v>1</v>
+      </c>
+      <c r="E4" s="54">
+        <f xml:space="preserve"> E3 - (F3/G3)</f>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="F4" s="54">
+        <f t="shared" ref="F4:F15" si="0" xml:space="preserve"> 2*E4^3 - 3*(E4^2) + 1 * E4 - 5</f>
+        <v>5.2344105598542967E-2</v>
+      </c>
+      <c r="G4" s="54">
+        <f t="shared" ref="G4:G9" si="1">6*(E4^2)-6*E4+1</f>
+        <v>11.650887573964498</v>
+      </c>
+      <c r="H4" s="55">
+        <f t="shared" ref="H4:H9" si="2">F4/G4</f>
+        <v>4.4927139899206504E-3</v>
+      </c>
+      <c r="I4" s="55">
+        <f t="shared" ref="I4:I9" si="3">E5</f>
+        <v>1.9185842090870024</v>
+      </c>
+      <c r="J4" s="55">
+        <f>ABS(E4-E3)</f>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="K4" s="55" t="b">
+        <f>J4&lt;0.0001</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="22">
+        <v>2</v>
+      </c>
+      <c r="E5" s="22">
+        <f t="shared" ref="E5:E9" si="4" xml:space="preserve"> E4 - (F4/G4)</f>
+        <v>1.9185842090870024</v>
+      </c>
+      <c r="F5" s="22">
+        <f t="shared" si="0"/>
+        <v>1.7216303139377942E-4</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="1"/>
+        <v>11.574286949625979</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1.48746123318934E-5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>1.9185693344746706</v>
+      </c>
+      <c r="J5">
+        <f>ABS(E5-E4)</f>
+        <v>4.4927139899206825E-3</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" ref="K5:K15" si="5">J5&lt;0.0001</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="54">
+        <v>3</v>
+      </c>
+      <c r="E6" s="54">
+        <f t="shared" si="4"/>
+        <v>1.9185693344746706</v>
+      </c>
+      <c r="F6" s="54">
+        <f t="shared" si="0"/>
+        <v>1.8831984860412376E-9</v>
+      </c>
+      <c r="G6" s="54">
+        <f t="shared" si="1"/>
+        <v>11.57403374027146</v>
+      </c>
+      <c r="H6" s="55">
+        <f t="shared" si="2"/>
+        <v>1.6270891620859129E-10</v>
+      </c>
+      <c r="I6" s="55">
+        <f t="shared" si="3"/>
+        <v>1.9185693343119616</v>
+      </c>
+      <c r="J6" s="55">
+        <f>ABS(E6-E5)</f>
+        <v>1.4874612331849946E-5</v>
+      </c>
+      <c r="K6" s="55" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="22">
+        <v>4</v>
+      </c>
+      <c r="E7" s="22">
+        <f t="shared" si="4"/>
+        <v>1.9185693343119616</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="1"/>
+        <v>11.574033737501694</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>1.9185693343119616</v>
+      </c>
+      <c r="J7">
+        <f>ABS(E7-E6)</f>
+        <v>1.6270895741854474E-10</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="54">
+        <v>5</v>
+      </c>
+      <c r="E8" s="54">
+        <f xml:space="preserve"> E7 - (F7/G7)</f>
+        <v>1.9185693343119616</v>
+      </c>
+      <c r="F8" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="54">
+        <f t="shared" ref="G8:G9" si="6">6*(E8^2)-6*E8+1</f>
+        <v>11.574033737501694</v>
+      </c>
+      <c r="H8" s="55">
+        <f t="shared" ref="H8:H9" si="7">F8/G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="55">
+        <f t="shared" ref="I8:I9" si="8">E9</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="55">
+        <f>ABS(E8-E7)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="55" t="b">
+        <f>J8&lt;0.0001</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6728,8 +11934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6740,12 +11946,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7209,8 +12415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7220,55 +12426,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7354,7 +12560,7 @@
         <v>1.753324180597815E-4</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" ref="L6:L68" si="2">IF(K6&lt;=0.0001,"AKAR","BELUM")</f>
+        <f t="shared" ref="L6:L7" si="2">IF(K6&lt;=0.0001,"AKAR","BELUM")</f>
         <v>BELUM</v>
       </c>
     </row>
@@ -7370,11 +12576,11 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E8" si="3">IF(H6*J6&gt;=0,G6,E6)</f>
+        <f t="shared" ref="E7" si="3">IF(H6*J6&gt;=0,G6,E6)</f>
         <v>1.1962825068615495</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ref="F7:F8" si="4">IF(H6*J6&lt;0,G6,F6)</f>
+        <f t="shared" ref="F7" si="4">IF(H6*J6&lt;0,G6,F6)</f>
         <v>1.2</v>
       </c>
       <c r="G7" s="2">
@@ -7382,7 +12588,7 @@
         <v>1.1962877947038324</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" ref="H7:J8" si="5">4.15*E7^5-2.23*E7^3-6.35</f>
+        <f t="shared" ref="H7:I7" si="5">4.15*E7^5-2.23*E7^3-6.35</f>
         <v>-1.753324180597815E-4</v>
       </c>
       <c r="I7" s="2">
@@ -7394,7 +12600,7 @@
         <v>-1.2417185999424873E-6</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" ref="K7:K8" si="6">ABS(J7)</f>
+        <f t="shared" ref="K7" si="6">ABS(J7)</f>
         <v>1.2417185999424873E-6</v>
       </c>
       <c r="L7" s="3" t="str">
@@ -7403,10 +12609,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <f t="shared" si="0"/>
         <v>-2.6345134999999975</v>
       </c>
@@ -7420,10 +12626,10 @@
       <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>1.2</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <f t="shared" si="0"/>
         <v>0.12308800000000009</v>
       </c>
@@ -7529,4 +12735,2003 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O44"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6">
+        <f>4.15*A6^5-2.23*A6^3-6.35</f>
+        <v>-12696.350000000002</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <f>(F6+H6)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2</v>
+      </c>
+      <c r="I6" s="11">
+        <f>4.15*F6^5-2.23*F6^3-6.35</f>
+        <v>-4.43</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" ref="J6" si="0">4.15*G6^5-2.23*G6^3-6.35</f>
+        <v>17.637812500000003</v>
+      </c>
+      <c r="K6" s="23">
+        <f>4.15*H6^5-2.23*H6^3-6.35</f>
+        <v>108.61000000000001</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>-4</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" ref="B7:B16" si="1">4.15*A7^5-2.23*A7^3-6.35</f>
+        <v>-4113.2300000000005</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <f>IF(I6*J6&lt;0,F6,G6)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <f>(F7+H7)/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="H7" s="7">
+        <f>IF(J6*K6&lt;0,H6,G6)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="7">
+        <f>4.15*F7^5-2.23*F7^3-6.35</f>
+        <v>-4.43</v>
+      </c>
+      <c r="J7" s="7">
+        <f>4.15*G7^5-2.23*G7^3-6.35</f>
+        <v>1.9593261718750021</v>
+      </c>
+      <c r="K7" s="24">
+        <f>4.15*H7^5-2.23*H7^3-6.35</f>
+        <v>17.637812500000003</v>
+      </c>
+      <c r="L7" s="7">
+        <f>G7-G6</f>
+        <v>-0.25</v>
+      </c>
+      <c r="M7" s="26">
+        <f>((G7-G6)/G7)*100%</f>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>-954.59</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" ref="F8:F13" si="2">IF(I7*J7&lt;0,F7,G7)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" ref="G8:G13" si="3">(F8+H8)/2</f>
+        <v>1.125</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" ref="H8:H13" si="4">IF(J7*K7&lt;0,H7,G7)</f>
+        <v>1.25</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" ref="I8:K13" si="5">4.15*F8^5-2.23*F8^3-6.35</f>
+        <v>-4.43</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="5"/>
+        <v>-2.04670196533203</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="5"/>
+        <v>1.9593261718750021</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" ref="L8:L13" si="6">G8-G7</f>
+        <v>-0.125</v>
+      </c>
+      <c r="M8" s="26">
+        <f t="shared" ref="M8:M13" si="7">((G8-G7)/G8)*100%</f>
+        <v>-0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>-2</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="1"/>
+        <v>-121.31</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="2"/>
+        <v>1.125</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="3"/>
+        <v>1.1875</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="5"/>
+        <v>-2.04670196533203</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.28449313163757139</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="5"/>
+        <v>1.9593261718750021</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M9" s="26">
+        <f t="shared" si="7"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>-8.27</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1875</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="3"/>
+        <v>1.21875</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.28449313163757139</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="5"/>
+        <v>0.77198921948671462</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="5"/>
+        <v>1.9593261718750021</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M10" s="26">
+        <f t="shared" si="7"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="1"/>
+        <v>-6.35</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="7">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1875</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="3"/>
+        <v>1.203125</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="4"/>
+        <v>1.21875</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.28449313163757139</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="5"/>
+        <v>0.22806667211465737</v>
+      </c>
+      <c r="K11" s="24">
+        <f t="shared" si="5"/>
+        <v>0.77198921948671462</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="6"/>
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="M11" s="26">
+        <f t="shared" si="7"/>
+        <v>-1.2987012987012988E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.43</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="7">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1875</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="3"/>
+        <v>1.1953125</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="4"/>
+        <v>1.203125</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.28449313163757139</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="5"/>
+        <v>-3.2051106754515502E-2</v>
+      </c>
+      <c r="K12" s="24">
+        <f t="shared" si="5"/>
+        <v>0.22806667211465737</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="6"/>
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="M12" s="26">
+        <f t="shared" si="7"/>
+        <v>-6.5359477124183009E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="1"/>
+        <v>108.61000000000001</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="36">
+        <v>8</v>
+      </c>
+      <c r="F13" s="36">
+        <f t="shared" si="2"/>
+        <v>1.1953125</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="3"/>
+        <v>1.19921875</v>
+      </c>
+      <c r="H13" s="36">
+        <f t="shared" si="4"/>
+        <v>1.203125</v>
+      </c>
+      <c r="I13" s="36">
+        <f t="shared" si="5"/>
+        <v>-3.2051106754515502E-2</v>
+      </c>
+      <c r="J13" s="36">
+        <f t="shared" si="5"/>
+        <v>9.7038092205740334E-2</v>
+      </c>
+      <c r="K13" s="37">
+        <f t="shared" si="5"/>
+        <v>0.22806667211465737</v>
+      </c>
+      <c r="L13" s="36">
+        <f t="shared" si="6"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="M13" s="38">
+        <f t="shared" si="7"/>
+        <v>3.2573289902280132E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>941.89</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="1"/>
+        <v>4100.53</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>12683.650000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="N20" s="27"/>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="N28" s="27"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="N29" s="27"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="N30" s="27"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="N31" s="27"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="N32" s="27"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N33" s="27"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N34" s="27"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N35" s="27"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="11">
+        <v>1</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
+      <c r="C37" s="11">
+        <f>(B37+D37)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="D37" s="11">
+        <v>2</v>
+      </c>
+      <c r="E37" s="11">
+        <f>4.15*B37^5-2.23*B37^3-6.35</f>
+        <v>-4.43</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" ref="F37" si="8">4.15*C37^5-2.23*C37^3-6.35</f>
+        <v>17.637812500000003</v>
+      </c>
+      <c r="G37" s="23">
+        <f>4.15*D37^5-2.23*D37^3-6.35</f>
+        <v>108.61000000000001</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>2</v>
+      </c>
+      <c r="B38" s="7">
+        <f>IF(E37*F37&lt;0,B37,C37)</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="7">
+        <f>(B38+D38)/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="D38" s="7">
+        <f>IF(F37*G37&lt;0,D37,C37)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E38" s="7">
+        <f>4.15*B38^5-2.23*B38^3-6.35</f>
+        <v>-4.43</v>
+      </c>
+      <c r="F38" s="7">
+        <f>4.15*C38^5-2.23*C38^3-6.35</f>
+        <v>1.9593261718750021</v>
+      </c>
+      <c r="G38" s="24">
+        <f>4.15*D38^5-2.23*D38^3-6.35</f>
+        <v>17.637812500000003</v>
+      </c>
+      <c r="H38" s="7">
+        <f>C38-C37</f>
+        <v>-0.25</v>
+      </c>
+      <c r="I38" s="26">
+        <f>((C38-C37)/C38)*100%</f>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>3</v>
+      </c>
+      <c r="B39" s="7">
+        <f t="shared" ref="B39:B44" si="9">IF(E38*F38&lt;0,B38,C38)</f>
+        <v>1</v>
+      </c>
+      <c r="C39" s="7">
+        <f t="shared" ref="C39:C44" si="10">(B39+D39)/2</f>
+        <v>1.125</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" ref="D39:D44" si="11">IF(F38*G38&lt;0,D38,C38)</f>
+        <v>1.25</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" ref="E39:E44" si="12">4.15*B39^5-2.23*B39^3-6.35</f>
+        <v>-4.43</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" ref="F39:F44" si="13">4.15*C39^5-2.23*C39^3-6.35</f>
+        <v>-2.04670196533203</v>
+      </c>
+      <c r="G39" s="24">
+        <f t="shared" ref="G39:G44" si="14">4.15*D39^5-2.23*D39^3-6.35</f>
+        <v>1.9593261718750021</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" ref="H39:H44" si="15">C39-C38</f>
+        <v>-0.125</v>
+      </c>
+      <c r="I39" s="26">
+        <f t="shared" ref="I39:I44" si="16">((C39-C38)/C39)*100%</f>
+        <v>-0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>4</v>
+      </c>
+      <c r="B40" s="7">
+        <f t="shared" si="9"/>
+        <v>1.125</v>
+      </c>
+      <c r="C40" s="7">
+        <f t="shared" si="10"/>
+        <v>1.1875</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="11"/>
+        <v>1.25</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="12"/>
+        <v>-2.04670196533203</v>
+      </c>
+      <c r="F40" s="7">
+        <f t="shared" si="13"/>
+        <v>-0.28449313163757139</v>
+      </c>
+      <c r="G40" s="24">
+        <f t="shared" si="14"/>
+        <v>1.9593261718750021</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="15"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I40" s="26">
+        <f t="shared" si="16"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7">
+        <f t="shared" si="9"/>
+        <v>1.1875</v>
+      </c>
+      <c r="C41" s="7">
+        <f t="shared" si="10"/>
+        <v>1.21875</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="11"/>
+        <v>1.25</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="12"/>
+        <v>-0.28449313163757139</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="13"/>
+        <v>0.77198921948671462</v>
+      </c>
+      <c r="G41" s="24">
+        <f t="shared" si="14"/>
+        <v>1.9593261718750021</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="15"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I41" s="26">
+        <f t="shared" si="16"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>6</v>
+      </c>
+      <c r="B42" s="7">
+        <f t="shared" si="9"/>
+        <v>1.1875</v>
+      </c>
+      <c r="C42" s="7">
+        <f t="shared" si="10"/>
+        <v>1.203125</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="11"/>
+        <v>1.21875</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="12"/>
+        <v>-0.28449313163757139</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="13"/>
+        <v>0.22806667211465737</v>
+      </c>
+      <c r="G42" s="24">
+        <f t="shared" si="14"/>
+        <v>0.77198921948671462</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="15"/>
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="I42" s="26">
+        <f t="shared" si="16"/>
+        <v>-1.2987012987012988E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <v>7</v>
+      </c>
+      <c r="B43" s="7">
+        <f t="shared" si="9"/>
+        <v>1.1875</v>
+      </c>
+      <c r="C43" s="7">
+        <f t="shared" si="10"/>
+        <v>1.1953125</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="11"/>
+        <v>1.203125</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="12"/>
+        <v>-0.28449313163757139</v>
+      </c>
+      <c r="F43" s="7">
+        <f t="shared" si="13"/>
+        <v>-3.2051106754515502E-2</v>
+      </c>
+      <c r="G43" s="24">
+        <f t="shared" si="14"/>
+        <v>0.22806667211465737</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="15"/>
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="I43" s="26">
+        <f t="shared" si="16"/>
+        <v>-6.5359477124183009E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" s="36">
+        <v>8</v>
+      </c>
+      <c r="B44" s="36">
+        <f t="shared" si="9"/>
+        <v>1.1953125</v>
+      </c>
+      <c r="C44" s="36">
+        <f t="shared" si="10"/>
+        <v>1.19921875</v>
+      </c>
+      <c r="D44" s="36">
+        <f t="shared" si="11"/>
+        <v>1.203125</v>
+      </c>
+      <c r="E44" s="36">
+        <f t="shared" si="12"/>
+        <v>-3.2051106754515502E-2</v>
+      </c>
+      <c r="F44" s="36">
+        <f t="shared" si="13"/>
+        <v>9.7038092205740334E-2</v>
+      </c>
+      <c r="G44" s="37">
+        <f t="shared" si="14"/>
+        <v>0.22806667211465737</v>
+      </c>
+      <c r="H44" s="36">
+        <f t="shared" si="15"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="I44" s="38">
+        <f t="shared" si="16"/>
+        <v>3.2573289902280132E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O44"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6">
+        <f>4.15*A6^5-5.09*A6^7-2.12</f>
+        <v>384685.38</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>-2</v>
+      </c>
+      <c r="G6" s="11">
+        <f>(F6+H6)/2</f>
+        <v>-1.5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="11">
+        <f>4.15*F6^5-5.09*F6^7-2.12</f>
+        <v>516.6</v>
+      </c>
+      <c r="J6" s="11">
+        <f>4.15*G6^5-5.09*G6^7-2.12</f>
+        <v>53.333359375000001</v>
+      </c>
+      <c r="K6" s="23">
+        <f>4.15*H6^5-5.09*H6^7-2.12</f>
+        <v>-1.1800000000000006</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>-4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B16" si="0">4.15*A7^5-5.09*A7^7-2.12</f>
+        <v>79142.84</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <f>IF(I6*J6&lt;0,F6,G6)</f>
+        <v>-1.5</v>
+      </c>
+      <c r="G7" s="7">
+        <f>(F7+H7)/2</f>
+        <v>-1.25</v>
+      </c>
+      <c r="H7" s="7">
+        <f>IF(J6*K6&lt;0,H6,G6)</f>
+        <v>-1</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" ref="I7:I13" si="1">4.15*F7^5-5.09*F7^7-2.12</f>
+        <v>53.333359375000001</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" ref="J7:J13" si="2">4.15*G7^5-5.09*G7^7-2.12</f>
+        <v>9.4862164306640615</v>
+      </c>
+      <c r="K7" s="23">
+        <f t="shared" ref="K7:K13" si="3">4.15*H7^5-5.09*H7^7-2.12</f>
+        <v>-1.1800000000000006</v>
+      </c>
+      <c r="L7" s="7">
+        <f>G7-G6</f>
+        <v>0.25</v>
+      </c>
+      <c r="M7" s="26">
+        <f>((G7-G6)/G7)*100%</f>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>10121.259999999998</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" ref="F8:F13" si="4">IF(I7*J7&lt;0,F7,G7)</f>
+        <v>-1.25</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" ref="G8:G13" si="5">(F8+H8)/2</f>
+        <v>-1.125</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" ref="H8:H13" si="6">IF(J7*K7&lt;0,H7,G7)</f>
+        <v>-1</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="1"/>
+        <v>9.4862164306640615</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.0103147363662712</v>
+      </c>
+      <c r="K8" s="23">
+        <f t="shared" si="3"/>
+        <v>-1.1800000000000006</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" ref="L8:L13" si="7">G8-G7</f>
+        <v>0.125</v>
+      </c>
+      <c r="M8" s="26">
+        <f t="shared" ref="M8:M13" si="8">((G8-G7)/G8)*100%</f>
+        <v>-0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="40">
+        <v>-2</v>
+      </c>
+      <c r="B9" s="40">
+        <f t="shared" si="0"/>
+        <v>516.6</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.125</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="5"/>
+        <v>-1.0625</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="1"/>
+        <v>2.0103147363662712</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="2"/>
+        <v>4.1293360479174979E-2</v>
+      </c>
+      <c r="K9" s="23">
+        <f t="shared" si="3"/>
+        <v>-1.1800000000000006</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M9" s="26">
+        <f t="shared" si="8"/>
+        <v>-5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="40">
+        <v>-1</v>
+      </c>
+      <c r="B10" s="40">
+        <f t="shared" si="0"/>
+        <v>-1.1800000000000006</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.0625</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="5"/>
+        <v>-1.03125</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="1"/>
+        <v>4.1293360479174979E-2</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.64681914751505332</v>
+      </c>
+      <c r="K10" s="23">
+        <f t="shared" si="3"/>
+        <v>-1.1800000000000006</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="7"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M10" s="26">
+        <f t="shared" si="8"/>
+        <v>-3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>-2.12</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="7">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.0625</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="5"/>
+        <v>-1.046875</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="6"/>
+        <v>-1.03125</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="1"/>
+        <v>4.1293360479174979E-2</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.32396272928854408</v>
+      </c>
+      <c r="K11" s="23">
+        <f t="shared" si="3"/>
+        <v>-0.64681914751505332</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="7"/>
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="M11" s="26">
+        <f t="shared" si="8"/>
+        <v>1.4925373134328358E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>-3.0599999999999996</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="7">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.0625</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="5"/>
+        <v>-1.0546875</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="6"/>
+        <v>-1.046875</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="1"/>
+        <v>4.1293360479174979E-2</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.14687776725124291</v>
+      </c>
+      <c r="K12" s="23">
+        <f t="shared" si="3"/>
+        <v>-0.32396272928854408</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="7"/>
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="M12" s="26">
+        <f t="shared" si="8"/>
+        <v>7.4074074074074077E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>-520.84</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="36">
+        <v>8</v>
+      </c>
+      <c r="F13" s="36">
+        <f t="shared" si="4"/>
+        <v>-1.0625</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="5"/>
+        <v>-1.05859375</v>
+      </c>
+      <c r="H13" s="36">
+        <f t="shared" si="6"/>
+        <v>-1.0546875</v>
+      </c>
+      <c r="I13" s="41">
+        <f t="shared" si="1"/>
+        <v>4.1293360479174979E-2</v>
+      </c>
+      <c r="J13" s="41">
+        <f t="shared" si="2"/>
+        <v>-5.4209268640240893E-2</v>
+      </c>
+      <c r="K13" s="42">
+        <f t="shared" si="3"/>
+        <v>-0.14687776725124291</v>
+      </c>
+      <c r="L13" s="36">
+        <f t="shared" si="7"/>
+        <v>-3.90625E-3</v>
+      </c>
+      <c r="M13" s="38">
+        <f t="shared" si="8"/>
+        <v>3.6900369003690036E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>-10125.5</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>-79147.079999999987</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>-384689.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="N20" s="27"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="27"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>-5</v>
+      </c>
+      <c r="B22">
+        <f>3.49*A22^7-5.09*A22^5-2.12</f>
+        <v>-256752.12</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="11">
+        <f>(F22+H22)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="H22" s="11">
+        <v>2</v>
+      </c>
+      <c r="I22" s="11">
+        <f>3.49*F22^7-5.09*F22^5-2.12</f>
+        <v>-3.7199999999999998</v>
+      </c>
+      <c r="J22" s="11">
+        <f>3.49*G22^7-5.09*G22^5-2.12</f>
+        <v>18.857734375000003</v>
+      </c>
+      <c r="K22" s="23">
+        <f>3.49*H22^7-5.09*H22^5-2.12</f>
+        <v>281.72000000000003</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>-4</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:B32" si="9">3.49*A23^7-5.09*A23^5-2.12</f>
+        <v>-51970.12</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7">
+        <f>IF(I22*J22&lt;0,F22,G22)</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <f>(F23+H23)/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="H23" s="7">
+        <f>IF(J22*K22&lt;0,H22,G22)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" ref="I23:I29" si="10">3.49*F23^7-5.09*F23^5-2.12</f>
+        <v>-3.7199999999999998</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" ref="J23:J29" si="11">3.49*G23^7-5.09*G23^5-2.12</f>
+        <v>-1.0118304443359376</v>
+      </c>
+      <c r="K23" s="23">
+        <f t="shared" ref="K23:K29" si="12">3.49*H23^7-5.09*H23^5-2.12</f>
+        <v>18.857734375000003</v>
+      </c>
+      <c r="L23" s="7">
+        <f>G23-G22</f>
+        <v>-0.25</v>
+      </c>
+      <c r="M23" s="26">
+        <f>((G23-G22)/G23)*100%</f>
+        <v>-0.2</v>
+      </c>
+      <c r="N23" s="27"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>-3</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="9"/>
+        <v>-6397.88</v>
+      </c>
+      <c r="E24" s="7">
+        <v>3</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" ref="F24:F29" si="13">IF(I23*J23&lt;0,F23,G23)</f>
+        <v>1.25</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" ref="G24:G29" si="14">(F24+H24)/2</f>
+        <v>1.375</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" ref="H24:H29" si="15">IF(J23*K23&lt;0,H23,G23)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.0118304443359376</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="11"/>
+        <v>5.2930311155319254</v>
+      </c>
+      <c r="K24" s="23">
+        <f t="shared" si="12"/>
+        <v>18.857734375000003</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" ref="L24:L29" si="16">G24-G23</f>
+        <v>0.125</v>
+      </c>
+      <c r="M24" s="26">
+        <f t="shared" ref="M24:M29" si="17">((G24-G23)/G24)*100%</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="N24" s="27"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>-2</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="9"/>
+        <v>-285.96000000000004</v>
+      </c>
+      <c r="E25" s="7">
+        <v>4</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="13"/>
+        <v>1.25</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="14"/>
+        <v>1.3125</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="15"/>
+        <v>1.375</v>
+      </c>
+      <c r="I25" s="11">
+        <f>3.49*F25^7-5.09*F25^5-2.12</f>
+        <v>-1.0118304443359376</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="11"/>
+        <v>1.4713737157359725</v>
+      </c>
+      <c r="K25" s="23">
+        <f t="shared" si="12"/>
+        <v>5.2930311155319254</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="16"/>
+        <v>-6.25E-2</v>
+      </c>
+      <c r="M25" s="26">
+        <f t="shared" si="17"/>
+        <v>-4.7619047619047616E-2</v>
+      </c>
+      <c r="N25" s="27"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="9"/>
+        <v>-0.52000000000000046</v>
+      </c>
+      <c r="E26" s="7">
+        <v>5</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="13"/>
+        <v>1.25</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="14"/>
+        <v>1.28125</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="15"/>
+        <v>1.3125</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.0118304443359376</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="11"/>
+        <v>8.6983022640052532E-2</v>
+      </c>
+      <c r="K26" s="23">
+        <f t="shared" si="12"/>
+        <v>1.4713737157359725</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="16"/>
+        <v>-3.125E-2</v>
+      </c>
+      <c r="M26" s="26">
+        <f t="shared" si="17"/>
+        <v>-2.4390243902439025E-2</v>
+      </c>
+      <c r="N26" s="27"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="9"/>
+        <v>-2.12</v>
+      </c>
+      <c r="E27" s="7">
+        <v>6</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="13"/>
+        <v>1.25</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="14"/>
+        <v>1.265625</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="15"/>
+        <v>1.28125</v>
+      </c>
+      <c r="I27" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.0118304443359376</v>
+      </c>
+      <c r="J27" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.4953484835348787</v>
+      </c>
+      <c r="K27" s="23">
+        <f t="shared" si="12"/>
+        <v>8.6983022640052532E-2</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="16"/>
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="M27" s="26">
+        <f t="shared" si="17"/>
+        <v>-1.2345679012345678E-2</v>
+      </c>
+      <c r="N27" s="27"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="40">
+        <v>1</v>
+      </c>
+      <c r="B28" s="40">
+        <f t="shared" si="9"/>
+        <v>-3.7199999999999998</v>
+      </c>
+      <c r="E28" s="7">
+        <v>7</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="13"/>
+        <v>1.265625</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="14"/>
+        <v>1.2734375</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="15"/>
+        <v>1.28125</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="10"/>
+        <v>-0.4953484835348787</v>
+      </c>
+      <c r="J28" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.21274808531879241</v>
+      </c>
+      <c r="K28" s="23">
+        <f t="shared" si="12"/>
+        <v>8.6983022640052532E-2</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="16"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="M28" s="26">
+        <f t="shared" si="17"/>
+        <v>6.1349693251533744E-3</v>
+      </c>
+      <c r="N28" s="27"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="40">
+        <v>2</v>
+      </c>
+      <c r="B29" s="40">
+        <f t="shared" si="9"/>
+        <v>281.72000000000003</v>
+      </c>
+      <c r="E29" s="36">
+        <v>8</v>
+      </c>
+      <c r="F29" s="36">
+        <f t="shared" si="13"/>
+        <v>1.2734375</v>
+      </c>
+      <c r="G29" s="36">
+        <f t="shared" si="14"/>
+        <v>1.27734375</v>
+      </c>
+      <c r="H29" s="36">
+        <f t="shared" si="15"/>
+        <v>1.28125</v>
+      </c>
+      <c r="I29" s="41">
+        <f t="shared" si="10"/>
+        <v>-0.21274808531879241</v>
+      </c>
+      <c r="J29" s="41">
+        <f t="shared" si="11"/>
+        <v>-6.5066704373541562E-2</v>
+      </c>
+      <c r="K29" s="42">
+        <f t="shared" si="12"/>
+        <v>8.6983022640052532E-2</v>
+      </c>
+      <c r="L29" s="36">
+        <f t="shared" si="16"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="M29" s="38">
+        <f t="shared" si="17"/>
+        <v>3.0581039755351682E-3</v>
+      </c>
+      <c r="N29" s="27"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="9"/>
+        <v>6393.64</v>
+      </c>
+      <c r="N30" s="27"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="9"/>
+        <v>51965.88</v>
+      </c>
+      <c r="N31" s="27"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="9"/>
+        <v>256747.88</v>
+      </c>
+      <c r="N32" s="27"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N33" s="27"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N34" s="27"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N35" s="27"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="43"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="43"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="28"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="28"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="28"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="28"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="28"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A19:D19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Tugas2/Metnum_Irgiyansyah_T2-1.xlsx
+++ b/Tugas2/Metnum_Irgiyansyah_T2-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7450" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7450" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Error (2)" sheetId="11" r:id="rId9"/>
     <sheet name="Newton" sheetId="13" r:id="rId10"/>
     <sheet name="Sheet2" sheetId="14" r:id="rId11"/>
+    <sheet name="Biseksi UTS" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
   <si>
     <t>x</t>
   </si>
@@ -197,6 +198,9 @@
   <si>
     <t>x(k+1)</t>
   </si>
+  <si>
+    <t>Persamaan = 20x^5+97,6x^4+188x^3+176x^2+78,4x-12,6</t>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -585,12 +595,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -605,6 +609,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,11 +818,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-27598688"/>
-        <c:axId val="-27610656"/>
+        <c:axId val="2146058400"/>
+        <c:axId val="169515936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-27598688"/>
+        <c:axId val="2146058400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,12 +879,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-27610656"/>
+        <c:crossAx val="169515936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-27610656"/>
+        <c:axId val="169515936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-27598688"/>
+        <c:crossAx val="2146058400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -939,6 +953,367 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Biseksi UTS'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Biseksi UTS'!$A$6:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Biseksi UTS'!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-21004.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5036.6000000000022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-694.20000000000061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-47.800000000000104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-25.400000000000013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-12.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>547.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4553.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19648.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60614.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="169525184"/>
+        <c:axId val="169517024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="169525184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169517024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="169517024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169525184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1141,11 +1516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-27609568"/>
-        <c:axId val="-27609024"/>
+        <c:axId val="169518656"/>
+        <c:axId val="169526816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-27609568"/>
+        <c:axId val="169518656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-27609024"/>
+        <c:crossAx val="169526816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1196,7 +1571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-27609024"/>
+        <c:axId val="169526816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-27609568"/>
+        <c:crossAx val="169518656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1461,11 +1836,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-27608480"/>
-        <c:axId val="-27607392"/>
+        <c:axId val="169529536"/>
+        <c:axId val="169520832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-27608480"/>
+        <c:axId val="169529536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1508,7 +1883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-27607392"/>
+        <c:crossAx val="169520832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1516,7 +1891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-27607392"/>
+        <c:axId val="169520832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1567,7 +1942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-27608480"/>
+        <c:crossAx val="169529536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1781,11 +2156,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-27606848"/>
-        <c:axId val="-27606304"/>
+        <c:axId val="169521920"/>
+        <c:axId val="169519200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-27606848"/>
+        <c:axId val="169521920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +2203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-27606304"/>
+        <c:crossAx val="169519200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1836,7 +2211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-27606304"/>
+        <c:axId val="169519200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1887,7 +2262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-27606848"/>
+        <c:crossAx val="169521920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2101,11 +2476,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-28210816"/>
-        <c:axId val="-28209184"/>
+        <c:axId val="169523552"/>
+        <c:axId val="169519744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-28210816"/>
+        <c:axId val="169523552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,7 +2523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-28209184"/>
+        <c:crossAx val="169519744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2156,7 +2531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-28209184"/>
+        <c:axId val="169519744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,7 +2582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-28210816"/>
+        <c:crossAx val="169523552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2271,6 +2646,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2432,11 +2808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1936130240"/>
-        <c:axId val="-1936125344"/>
+        <c:axId val="169518112"/>
+        <c:axId val="169528992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1936130240"/>
+        <c:axId val="169518112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,12 +2855,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1936125344"/>
+        <c:crossAx val="169528992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1936125344"/>
+        <c:axId val="169528992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,7 +2911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1936130240"/>
+        <c:crossAx val="169518112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2549,6 +2925,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3063,11 +3440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1936126976"/>
-        <c:axId val="-1936121536"/>
+        <c:axId val="169525728"/>
+        <c:axId val="169530624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1936126976"/>
+        <c:axId val="169525728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3110,7 +3487,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1936121536"/>
+        <c:crossAx val="169530624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3118,7 +3495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1936121536"/>
+        <c:axId val="169530624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3169,7 +3546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1936126976"/>
+        <c:crossAx val="169525728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3264,6 +3641,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3674,11 +4052,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1936119360"/>
-        <c:axId val="-1936124800"/>
+        <c:axId val="169527904"/>
+        <c:axId val="169526272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1936119360"/>
+        <c:axId val="169527904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3720,7 +4098,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1936124800"/>
+        <c:crossAx val="169526272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3728,7 +4106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1936124800"/>
+        <c:axId val="169526272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,7 +4157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1936119360"/>
+        <c:crossAx val="169527904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3793,6 +4171,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4445,11 +4824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1936119904"/>
-        <c:axId val="-1936128064"/>
+        <c:axId val="169530080"/>
+        <c:axId val="169531168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1936119904"/>
+        <c:axId val="169530080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4492,7 +4871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1936128064"/>
+        <c:crossAx val="169531168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4500,7 +4879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1936128064"/>
+        <c:axId val="169531168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4551,7 +4930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1936119904"/>
+        <c:crossAx val="169530080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4632,6 +5011,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5507,6 +5926,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -9908,6 +10830,43 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128307</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>436095</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185270</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10186,11 +11145,11 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -10200,11 +11159,11 @@
         <f>4.15*A2^5-2.23*A2^3-6.35</f>
         <v>-12696.350000000002</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -10310,7 +11269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -10331,10 +11290,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
     </row>
@@ -10434,7 +11393,7 @@
         <v>40125321.736645021</v>
       </c>
       <c r="F8" s="22">
-        <f t="shared" ref="F8:F16" si="1">ABS(E8-E7)</f>
+        <f t="shared" ref="F8:F15" si="1">ABS(E8-E7)</f>
         <v>40125330.109194145</v>
       </c>
       <c r="G8" s="22" t="b">
@@ -11157,7 +12116,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11166,7 +12125,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="5"/>
@@ -11177,35 +12136,35 @@
       <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="50" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="5"/>
@@ -11237,34 +12196,34 @@
       <c r="A4" s="40"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="54">
+      <c r="D4" s="52">
         <v>1</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="52">
         <f xml:space="preserve"> E3 - (F3/G3)</f>
         <v>1.9230769230769231</v>
       </c>
-      <c r="F4" s="54">
-        <f t="shared" ref="F4:F15" si="0" xml:space="preserve"> 2*E4^3 - 3*(E4^2) + 1 * E4 - 5</f>
+      <c r="F4" s="52">
+        <f t="shared" ref="F4:F8" si="0" xml:space="preserve"> 2*E4^3 - 3*(E4^2) + 1 * E4 - 5</f>
         <v>5.2344105598542967E-2</v>
       </c>
-      <c r="G4" s="54">
-        <f t="shared" ref="G4:G9" si="1">6*(E4^2)-6*E4+1</f>
+      <c r="G4" s="52">
+        <f t="shared" ref="G4:G7" si="1">6*(E4^2)-6*E4+1</f>
         <v>11.650887573964498</v>
       </c>
-      <c r="H4" s="55">
-        <f t="shared" ref="H4:H9" si="2">F4/G4</f>
+      <c r="H4" s="53">
+        <f t="shared" ref="H4:H7" si="2">F4/G4</f>
         <v>4.4927139899206504E-3</v>
       </c>
-      <c r="I4" s="55">
-        <f t="shared" ref="I4:I9" si="3">E5</f>
+      <c r="I4" s="53">
+        <f t="shared" ref="I4:I7" si="3">E5</f>
         <v>1.9185842090870024</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="53">
         <f>ABS(E4-E3)</f>
         <v>7.6923076923076872E-2</v>
       </c>
-      <c r="K4" s="55" t="b">
+      <c r="K4" s="53" t="b">
         <f>J4&lt;0.0001</f>
         <v>0</v>
       </c>
@@ -11279,7 +12238,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="22">
-        <f t="shared" ref="E5:E9" si="4" xml:space="preserve"> E4 - (F4/G4)</f>
+        <f t="shared" ref="E5:E7" si="4" xml:space="preserve"> E4 - (F4/G4)</f>
         <v>1.9185842090870024</v>
       </c>
       <c r="F5" s="22">
@@ -11303,7 +12262,7 @@
         <v>4.4927139899206825E-3</v>
       </c>
       <c r="K5" t="b">
-        <f t="shared" ref="K5:K15" si="5">J5&lt;0.0001</f>
+        <f t="shared" ref="K5:K7" si="5">J5&lt;0.0001</f>
         <v>0</v>
       </c>
     </row>
@@ -11311,34 +12270,34 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="54">
+      <c r="D6" s="52">
         <v>3</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="52">
         <f t="shared" si="4"/>
         <v>1.9185693344746706</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="52">
         <f t="shared" si="0"/>
         <v>1.8831984860412376E-9</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="52">
         <f t="shared" si="1"/>
         <v>11.57403374027146</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="53">
         <f t="shared" si="2"/>
         <v>1.6270891620859129E-10</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="53">
         <f t="shared" si="3"/>
         <v>1.9185693343119616</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="53">
         <f>ABS(E6-E5)</f>
         <v>1.4874612331849946E-5</v>
       </c>
-      <c r="K6" s="55" t="b">
+      <c r="K6" s="53" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -11381,34 +12340,34 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="54">
+      <c r="D8" s="52">
         <v>5</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="52">
         <f xml:space="preserve"> E7 - (F7/G7)</f>
         <v>1.9185693343119616</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="54">
-        <f t="shared" ref="G8:G9" si="6">6*(E8^2)-6*E8+1</f>
+      <c r="G8" s="52">
+        <f t="shared" ref="G8" si="6">6*(E8^2)-6*E8+1</f>
         <v>11.574033737501694</v>
       </c>
-      <c r="H8" s="55">
-        <f t="shared" ref="H8:H9" si="7">F8/G8</f>
+      <c r="H8" s="53">
+        <f t="shared" ref="H8" si="7">F8/G8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="55">
-        <f t="shared" ref="I8:I9" si="8">E9</f>
+      <c r="I8" s="53">
+        <f t="shared" ref="I8" si="8">E9</f>
         <v>0</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="53">
         <f>ABS(E8-E7)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="55" t="b">
+      <c r="K8" s="53" t="b">
         <f>J8&lt;0.0001</f>
         <v>1</v>
       </c>
@@ -11470,6 +12429,520 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6">
+        <f>20*A6^5+97.6*A6^4+188*A6^3+176*A6^2+78.4*A6-12.6</f>
+        <v>-21004.6</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <f>(F6+H6)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
+        <f>20*F6^5+97.6*F6^4+188*F6^3+176*F6^2+78.4*F6-12.6</f>
+        <v>-12.6</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" ref="J6:K6" si="0">20*G6^5+97.6*G6^4+188*G6^3+176*G6^2+78.4*G6-12.6</f>
+        <v>100.825</v>
+      </c>
+      <c r="K6" s="11">
+        <f>20*H6^5+97.6*H6^4+188*H6^3+176*H6^2+78.4*H6-12.6</f>
+        <v>547.4</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="47"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>-4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B16" si="1">20*A7^5+97.6*A7^4+188*A7^3+176*A7^2+78.4*A7-12.6</f>
+        <v>-5036.6000000000022</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <f>IF(I6*J6&lt;0,F6,G6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f>(F7+H7)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="7">
+        <f>IF(J6*K6&lt;0,H6,G6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" ref="I7:I15" si="2">20*F7^5+97.6*F7^4+188*F7^3+176*F7^2+78.4*F7-12.6</f>
+        <v>-12.6</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" ref="J7:J15" si="3">20*G7^5+97.6*G7^4+188*G7^3+176*G7^2+78.4*G7-12.6</f>
+        <v>21.338281250000001</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" ref="K7:K15" si="4">20*H7^5+97.6*H7^4+188*H7^3+176*H7^2+78.4*H7-12.6</f>
+        <v>100.825</v>
+      </c>
+      <c r="L7" s="6">
+        <f>ABS((G7-G6)/G7)</f>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>ABS(G7-G6)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>-694.20000000000061</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" ref="F8:F15" si="5">IF(I7*J7&lt;0,F7,G7)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" ref="G8:G15" si="6">(F8+H8)/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" ref="H8:H15" si="7">IF(J7*K7&lt;0,H7,G7)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="2"/>
+        <v>-12.6</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="3"/>
+        <v>0.34162597656250071</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="4"/>
+        <v>21.338281250000001</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" ref="L8:L15" si="8">ABS((G8-G7)/G8)</f>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M15" si="9">ABS(G8-G7)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>-2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>-47.800000000000104</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>-12.6</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="3"/>
+        <v>-6.9650932312011715</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="4"/>
+        <v>0.34162597656250071</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="9"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>-25.400000000000013</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="6"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>-6.9650932312011715</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="3"/>
+        <v>-3.5405335664749131</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="4"/>
+        <v>0.34162597656250071</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="9"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="51">
+        <v>0</v>
+      </c>
+      <c r="B11" s="51">
+        <f t="shared" si="1"/>
+        <v>-12.6</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="7">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="5"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="6"/>
+        <v>0.109375</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>-3.5405335664749131</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="3"/>
+        <v>-1.6592636473476876</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="4"/>
+        <v>0.34162597656250071</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="8"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="9"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="51">
+        <v>1</v>
+      </c>
+      <c r="B12" s="51">
+        <f t="shared" si="1"/>
+        <v>547.4</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="7">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="5"/>
+        <v>0.109375</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="6"/>
+        <v>0.1171875</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="2"/>
+        <v>-1.6592636473476876</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="3"/>
+        <v>-0.67410596183035487</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="4"/>
+        <v>0.34162597656250071</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="9"/>
+        <v>7.8125E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="57">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>4553.8</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="7">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="5"/>
+        <v>0.1171875</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="6"/>
+        <v>0.12109375</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.67410596183035487</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="3"/>
+        <v>-0.17010413975876837</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="4"/>
+        <v>0.34162597656250071</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="8"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="9"/>
+        <v>3.90625E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>19648.2</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="7">
+        <v>9</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.12109375</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.123046875</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.17010413975876837</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="3"/>
+        <v>8.478955246480524E-2</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="4"/>
+        <v>0.34162597656250071</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="8"/>
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="9"/>
+        <v>1.953125E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>60614.6</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="8">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.12109375</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="6"/>
+        <v>0.1220703125</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="7"/>
+        <v>0.123046875</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.17010413975876837</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" si="3"/>
+        <v>-4.2899467489265319E-2</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="4"/>
+        <v>8.478955246480524E-2</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="8"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="9"/>
+        <v>9.765625E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>151779.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11935,7 +13408,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11946,12 +13419,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12426,21 +13899,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="18"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -12761,12 +14234,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13703,12 +15176,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -14158,12 +15631,12 @@
       <c r="O18" s="22"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
